--- a/signUpTest/ExcelData.xlsx
+++ b/signUpTest/ExcelData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>email</t>
   </si>
@@ -44,9 +44,6 @@
     <t>emailData</t>
   </si>
   <si>
-    <t>Please enter a valid zip code</t>
-  </si>
-  <si>
     <t>947O6</t>
   </si>
   <si>
@@ -80,15 +77,6 @@
     <t>Charlie Brown</t>
   </si>
   <si>
-    <t>Phone cannot be blank.</t>
-  </si>
-  <si>
-    <t>Full Name cannot be blank.</t>
-  </si>
-  <si>
-    <t>Password must be between 6 and 71 characters long.</t>
-  </si>
-  <si>
     <t>Your card number is incomplete.</t>
   </si>
   <si>
@@ -104,7 +92,16 @@
     <t>charliebrown@fakecharlie.net</t>
   </si>
   <si>
-    <t>Please include an '@' in the email address. 'charlie.brown' is missing an '@'.</t>
+    <t>Please enter an email address.</t>
+  </si>
+  <si>
+    <t>Please enter a valid US zip code</t>
+  </si>
+  <si>
+    <t>Please enter a valid US mobile phone number</t>
+  </si>
+  <si>
+    <t>Password should be 6 characters or more</t>
   </si>
 </sst>
 </file>
@@ -540,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,13 +584,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -604,7 +601,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>94706</v>
@@ -613,35 +610,35 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>9470</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -653,28 +650,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
@@ -703,15 +700,15 @@
         <v>12345</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1">
         <v>123456</v>
@@ -729,15 +726,15 @@
         <v>12345</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>555</v>
@@ -758,15 +755,15 @@
         <v>12345</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>5555555555</v>
@@ -784,15 +781,15 @@
         <v>12345</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>5555555555</v>
@@ -813,15 +810,15 @@
         <v>12345</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <v>5555555555</v>
@@ -842,15 +839,15 @@
         <v>12345</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>5555555555</v>
@@ -859,7 +856,7 @@
         <v>123456</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="1">
@@ -869,15 +866,15 @@
         <v>12345</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="8:11" x14ac:dyDescent="0.25">
       <c r="K17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="8:11" x14ac:dyDescent="0.25">
